--- a/pcInventory.xlsx
+++ b/pcInventory.xlsx
@@ -13,8 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="2020-02-14" sheetId="1" r:id="rId1"/>
-    <sheet name="2020-02-141" sheetId="2" r:id="rId2"/>
-    <sheet name="2020-02-13" sheetId="3" r:id="rId3"/>
+    <sheet name="2020-02-13" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -2964,8 +2963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="G148" sqref="G148"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7151,18 +7150,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I160"/>
   <sheetViews>
